--- a/core/test/smoketest/test1.xlsx
+++ b/core/test/smoketest/test1.xlsx
@@ -10,15 +10,17 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Band1">data!$A$1:$C$2</definedName>
+    <definedName name="Band1">data!$A$1:$D$2</definedName>
     <definedName name="Band12">data!$B$3:$D$3</definedName>
+    <definedName name="Band13">data!$E$1:$E$2</definedName>
+    <definedName name="Band14">data!$C$4:$C$5</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>${col1}</t>
   </si>
@@ -36,19 +38,48 @@
   </si>
   <si>
     <t>${col6}</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDBC313"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -75,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -83,17 +114,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDBC313"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,59 +423,72 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1">
+        <f>SUM(A1:C1)</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="D2">
+        <f>SUM(A2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/core/test/smoketest/test1.xlsx
+++ b/core/test/smoketest/test1.xlsx
@@ -14,13 +14,14 @@
     <definedName name="Band12">data!$B$3:$D$3</definedName>
     <definedName name="Band13">data!$E$1:$E$2</definedName>
     <definedName name="Band14">data!$C$4:$C$5</definedName>
+    <definedName name="Chart">data!$A$6:$G$23</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>${col1}</t>
   </si>
@@ -108,19 +109,17 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,72 +422,78 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <f>SUM(A1:C1)</f>
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>SUM(A2:C2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="D3" s="5">
+        <f>SUM(D1:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/core/test/smoketest/test1.xlsx
+++ b/core/test/smoketest/test1.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5">
-        <f>SUM(D1:D2)</f>
+        <f>SUM(B3:C3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="6"/>

--- a/core/test/smoketest/test1.xlsx
+++ b/core/test/smoketest/test1.xlsx
@@ -95,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -103,13 +103,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -120,6 +196,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -422,78 +505,78 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="13">
         <f>SUM(A1:C1)</f>
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="14">
         <f>SUM(A2:C2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>SUM(B3:C3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/core/test/smoketest/test1.xlsx
+++ b/core/test/smoketest/test1.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <f>SUM(B3:C3)</f>
+        <f>SUM(E1:E1)</f>
         <v>0</v>
       </c>
       <c r="E3" s="5"/>

--- a/core/test/smoketest/test1.xlsx
+++ b/core/test/smoketest/test1.xlsx
@@ -580,6 +580,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>